--- a/modulo1/M1.D7-Formule Excel/QUARTO ESERCIZIO.xlsx
+++ b/modulo1/M1.D7-Formule Excel/QUARTO ESERCIZIO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dfb95c1635c5341/Documenti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dfb95c1635c5341/Desktop/EPICODE/EPICODE/modulo1/M1.D7-Formule Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53DB306A-8E34-4A63-AA9D-E4012E626AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{53DB306A-8E34-4A63-AA9D-E4012E626AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E002FF0-DE50-466E-BB0A-12C15AA56870}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12036" yWindow="348" windowWidth="11352" windowHeight="12240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="15" r:id="rId1"/>
@@ -842,7 +842,7 @@
     <numFmt numFmtId="170" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="_-[$€]\ * #,##0.00_-;\-[$€]\ * #,##0.00_-;_-[$€]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="174" formatCode="_-[$€-462]\ * #,##0.00_-;_-[$€-462]\ * #,##0.00\-;_-[$€-462]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_-[$€-462]\ * #,##0.00_-;_-[$€-462]\ * #,##0.00\-;_-[$€-462]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1101,6 +1101,13 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="2" fillId="4" borderId="0" xfId="10" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1116,13 +1123,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="6" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="0" xfId="10" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma [0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1137,18 +1137,7 @@
     <cellStyle name="Valuta 2" xfId="7" xr:uid="{207091F5-721C-455F-B370-D6B4AD03B231}"/>
     <cellStyle name="Valuta_gestione clienti(out)-1" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1519,18 +1508,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="102.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1562,15 +1551,15 @@
       <c r="C5" s="9">
         <v>281000</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="34">
         <f>SUMIF(categoria,"Abbigliamento",impo)</f>
         <v>22827000</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="34">
         <f>SUMIF(categoria,"Mobili",impo)</f>
         <v>5178000</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="34">
         <f ca="1">SUMIF(categoria,"Svago",Table4[[#Headers],[IMPONIBILE]])</f>
         <v>16836000</v>
       </c>
@@ -1585,13 +1574,13 @@
       <c r="C6" s="9">
         <v>323000</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="35" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1666,13 +1655,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="38">
         <v>626000</v>
       </c>
     </row>
@@ -1699,13 +1688,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="38">
         <v>882000</v>
       </c>
     </row>
@@ -2535,13 +2524,13 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="41" t="s">
+      <c r="A90" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C90" s="43">
+      <c r="C90" s="38">
         <v>556000</v>
       </c>
     </row>
@@ -2568,13 +2557,13 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="41" t="s">
+      <c r="A93" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="42" t="s">
+      <c r="B93" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C93" s="43">
+      <c r="C93" s="38">
         <v>35000</v>
       </c>
     </row>
@@ -3402,13 +3391,13 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="41" t="s">
+      <c r="A169" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B169" s="42" t="s">
+      <c r="B169" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C169" s="43">
+      <c r="C169" s="38">
         <v>524000</v>
       </c>
     </row>
@@ -3435,13 +3424,13 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="41" t="s">
+      <c r="A172" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B172" s="42" t="s">
+      <c r="B172" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C172" s="43">
+      <c r="C172" s="38">
         <v>1568000</v>
       </c>
     </row>
@@ -4265,13 +4254,13 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="41" t="s">
+      <c r="A248" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B248" s="42" t="s">
+      <c r="B248" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C248" s="43">
+      <c r="C248" s="38">
         <v>197000</v>
       </c>
     </row>
@@ -4298,13 +4287,13 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="41" t="s">
+      <c r="A251" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B251" s="42" t="s">
+      <c r="B251" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C251" s="43">
+      <c r="C251" s="38">
         <v>259000</v>
       </c>
     </row>
@@ -5130,13 +5119,13 @@
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="41" t="s">
+      <c r="A327" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B327" s="42" t="s">
+      <c r="B327" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C327" s="43">
+      <c r="C327" s="38">
         <v>102000</v>
       </c>
     </row>
@@ -5163,13 +5152,13 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="41" t="s">
+      <c r="A330" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B330" s="42" t="s">
+      <c r="B330" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C330" s="43">
+      <c r="C330" s="38">
         <v>233000</v>
       </c>
     </row>
@@ -6810,8 +6799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6867,14 +6856,14 @@
         <f t="array" ref="F2:F24">IF(TRUE()*(A2:A24="gennaio")*(C2:C24="casa")*(E2:E24&gt;10),"TROVATO","NON TROVATO")</f>
         <v>NON TROVATO</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -6895,12 +6884,12 @@
       <c r="F3" s="26" t="str">
         <v>TROVATO</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
@@ -6921,12 +6910,12 @@
       <c r="F4" s="26" t="str">
         <v>NON TROVATO</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -6947,12 +6936,12 @@
       <c r="F5" s="26" t="str">
         <v>NON TROVATO</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
@@ -6973,12 +6962,12 @@
       <c r="F6" s="26" t="str">
         <v>TROVATO</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -6999,12 +6988,12 @@
       <c r="F7" s="26" t="str">
         <v>NON TROVATO</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -7025,12 +7014,12 @@
       <c r="F8" s="26" t="str">
         <v>TROVATO</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -7364,7 +7353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBD8C3F-135D-4280-BD95-8C23E6C981DD}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
